--- a/Inputs/Orange_Neuron/info.xlsx
+++ b/Inputs/Orange_Neuron/info.xlsx
@@ -259,8 +259,8 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -269,7 +269,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="66.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="44.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="89.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>

--- a/Inputs/Orange_Neuron/info.xlsx
+++ b/Inputs/Orange_Neuron/info.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Orange_Neuron</t>
   </si>
   <si>
-    <t xml:space="preserve">NE_Dubai/AbuDhabi</t>
+    <t xml:space="preserve">AbuDhabi/</t>
   </si>
   <si>
     <t xml:space="preserve">2024-08-01</t>
@@ -259,11 +259,11 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.01"/>
@@ -341,7 +341,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
